--- a/Doc/DATN_bom_gateway.xlsx
+++ b/Doc/DATN_bom_gateway.xlsx
@@ -2,20 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LVCong\Downloads\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LVCong\Downloads\DATN\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740810F1-D97D-458C-9B3E-C13A4CCF1DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86818BC0-40DA-47B6-9266-3DC79B205C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6695A063-434E-44EB-8052-DAF3F6F7CE9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{6695A063-434E-44EB-8052-DAF3F6F7CE9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REPORT" sheetId="2" r:id="rId1"/>
+    <sheet name="SELECT_SENSOR" sheetId="10" r:id="rId2"/>
+    <sheet name="SELECT_MCU" sheetId="4" r:id="rId3"/>
+    <sheet name="SELECT_IC_LORA" sheetId="8" r:id="rId4"/>
+    <sheet name="SELECT_MODULE_SIM" sheetId="7" r:id="rId5"/>
+    <sheet name="SELECT_BUCK" sheetId="6" r:id="rId6"/>
+    <sheet name="IC_CHARGE" sheetId="9" r:id="rId7"/>
+    <sheet name="GATEWAY" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_Toc176158598" localSheetId="6">IC_CHARGE!$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +45,1361 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LVCong</author>
+    <author>tc={3DF892AE-1245-49B8-9ADC-5EFE6C8E1C84}</author>
+  </authors>
+  <commentList>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{E3D01A81-4260-4917-9D37-1547FBD98EF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LVCong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Phạm vi đo của mô-đun là
+từ 2 cm đến 400 cm và độ chính xác phạm vi của nó có thể đạt tới 3 mm. Môđun của cảm biến bao gồm một bộ thu, một bộ phát siêu âm và một mạch điều khiển
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{47EB6FD9-B770-400B-A807-916E2491F37B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LVCong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+độ phân giải hình ảnh
+20 MP, độ phân giải video 1080P, 720P, WVGA và được trang bị cảm biến PIR đa vùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{3DF892AE-1245-49B8-9ADC-5EFE6C8E1C84}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Grabcut là một thuật toán lặp lại và ít can thiệp của người dùng cho các tác vụ phân đoạn ảnh không giám sát, chia ảnh thành tiền cảnh và hậu cảnh (Rother và cộng sự, 2004). Sử dụng GrabCut để phân đoạn phần đo từ phần còn lại của ảnh. Thuật toán thường được triển khai bằng cách sử dụng ảnh đầu vào với hộp giới hạn xác định vị trí của đối tượng trong ảnh muốn phân đoạn hoặc mặt nạ xấp xỉ phân đoạn. Đầu tiên, sử dụng ảnh nhị phân ngưỡng để tìm đường viền tối đa và sau đó tạo mặt nạ. Các phương pháp phân đoạn ảnh truyền thống sử dụng thông tin kết cấu (màu sắc) hoặc thông tin cạnh (độ tương phản). GrabCut kết hợp thành công cả hai dạng thông tin và mang lại kết quả nâng cao 
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6E9CA607-92DC-4605-8FCB-79A1515A256E}</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{6E9CA607-92DC-4605-8FCB-79A1515A256E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Charging current is sensed via the voltage drop across the current-sense resistor (R&lt;sub&gt;18&lt;/sub&gt; in Figure 1), connected between BATT and CS. Full-scale charging current corresponds to a 200 mV drop across this resistor 
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="7">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="7">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="470">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mục 
+tiêu</t>
+  </si>
+  <si>
+    <t>mực
+ nước</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>màu
+ sắc</t>
+  </si>
+  <si>
+    <t>từ
+trường</t>
+  </si>
+  <si>
+    <t>âm 
+thanh</t>
+  </si>
+  <si>
+    <t>Tốc độ 
+dòng chảy</t>
+  </si>
+  <si>
+    <t>Nhiệt độ</t>
+  </si>
+  <si>
+    <t>Mưa</t>
+  </si>
+  <si>
+    <t>Độ nghiêng</t>
+  </si>
+  <si>
+    <t>Áp suất</t>
+  </si>
+  <si>
+    <t>Độ ẩm đất</t>
+  </si>
+  <si>
+    <t>Cảm biến sử dụng</t>
+  </si>
+  <si>
+    <t>Nguyên lý đo</t>
+  </si>
+  <si>
+    <t>Thuật toán sử dụng</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Giao thức</t>
+  </si>
+  <si>
+    <t>Anten</t>
+  </si>
+  <si>
+    <t>Công suất
+ đầu ra</t>
+  </si>
+  <si>
+    <t>Cấu trúc
+mạng</t>
+  </si>
+  <si>
+    <t>RSSI</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Độ trễ</t>
+  </si>
+  <si>
+    <t>Năng lượng</t>
+  </si>
+  <si>
+    <t>Bảo vệ ( Chống sét
+, chống nước, chống va đập, chống trộm,…)</t>
+  </si>
+  <si>
+    <t>Cách thức thông báo</t>
+  </si>
+  <si>
+    <t>Ưu điểm ( bản thân đánh giá)</t>
+  </si>
+  <si>
+    <t>Nhược điểm</t>
+  </si>
+  <si>
+    <t>Ưu điểm ( bài báo tự đánh giá)</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Kiểm tra mực nước trong
+ thành phố</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HC-SR04</t>
+  </si>
+  <si>
+    <t>Cảm biến siêu âm</t>
+  </si>
+  <si>
+    <t>Tự thiết kế thuật
+ toán ????</t>
+  </si>
+  <si>
+    <t>Microchip ATmega328
+Raspberry 
+Pi 3.0</t>
+  </si>
+  <si>
+    <t>LoRaWAN
+(915MHz)</t>
+  </si>
+  <si>
+    <t>Lưỡng cực
+độ lợi: 2dBi</t>
+  </si>
+  <si>
+    <t>20dBm</t>
+  </si>
+  <si>
+    <t>Hình sao</t>
+  </si>
+  <si>
+    <t>0 -&gt;9 dBm ở SF7
+&lt; 0 dBm ở SF12</t>
+  </si>
+  <si>
+    <t>20% ở 500m với SF12
+0% ở 600m ở SF7</t>
+  </si>
+  <si>
+    <t>SF7: 2.5s
+SF12: 3.75s
+(600m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mặt trời </t>
+  </si>
+  <si>
+    <t>Có chống nước
+Không cần chống sét vì áp dụng trong thành phố</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết nối thiết bị cảm biến với đám mây
+ và sau đó cảnh báo người được
+ nhắm mục tiêu qua email hoặc SMS </t>
+  </si>
+  <si>
+    <t>Chỉ áp dụng được trong thành
+ phố.</t>
+  </si>
+  <si>
+    <t>Thuật toán mới được thiết kế riêng để đo lường và giám sát mực nước lũ cũng như tốc độ thay đổi của chúng
+Tích hợp nhiều nền tảng IoT trong hệ thống  với cả nền tảng IoT TagoIO và ThingSpeak để
+cải thiện khả năng phân tích và trực quan hóa dữ liệu bằng máy tính cá nhân/máy tính
+xách tay/điện thoại thông minh --&gt; theo dõi theo thời gian thực
+Sử dụng năng lượng mặt trời.
+Hệ thống 4 mức cảnh báo
+Đánh giá RSSI, SNR, PDR, độ trễ</t>
+  </si>
+  <si>
+    <t>Cảm biến siêu âm phát ra tín hiệu siêu âm từ chân "Trigger" 
+và nhận xung qua chân "Echo". Sau đó, chân "Echo" và "Trigger" gửi dữ liệu số đến vi điều khiển để xác định mực nước lũ theo một số tham số được xác định trước trong chương trình phần mềm được viết bằng Arduino IDE. Các giá trị của mức độ rủi ro cũng được định nghĩa trong chương trình.</t>
+  </si>
+  <si>
+    <t>Giám sát nước vùng 
+sông hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Blackhawk LTE
+ Covert 2019</t>
+  </si>
+  <si>
+    <t>Một là đọc mực nước
+bằng cách sử dụng ghi nhận ảnh, và hai là đọc mực nước bằng cách sử dụng hiệu chuẩn
+pixel.</t>
+  </si>
+  <si>
+    <t>GrabCut
+Mask-RCNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng thời gian thực, kết cấu đơn giản
+</t>
+  </si>
+  <si>
+    <t>Lũ lụt nghiêm trọng thường xảy
+ ra vào ban đêm hoặc trong điều kiện khắc nghiệt khi tầm nhìn hạn chế --&gt; Camera chưa phù hợp
+Chưa có đánh giá về năng lượng cung cấp
+Chưa có các biện pháp bảo vệ tránh tác động bên ngoài
+Chưa có đánh giá độ trễ</t>
+  </si>
+  <si>
+    <t>Khi khả năng xảy ra lũ lụt vượt quá một điểm 
+nhất định, hệ thống hoàn toàn tự động có thể gửi tín hiệu đến các đơn vị chịu trách nhiệm tương ứng
+Việc giám sát liên tục và theo thời gian thực các hồ chứa nước có khả năng giúp xây dựng kiến thức toàn diện về các sự kiện khí hậu đột ngột và bất ngờ, đồng thời cải thiện khả năng dự đoán trước các sự kiện đó và thiết kế các giao thức an toàn phù hợp
+Việc giám sát và đo mực nước bằng các hệ thống dựa trên IoT sẽ bảo vệ người dùng khỏi các vấn đề nghiêm trọng, chẳng hạn như tình trạng mất nước ở những khu vực lấy nguồn nước hàng ngày từ các nguồn nước lân cận</t>
+  </si>
+  <si>
+    <t>Việc sử dụng ảnh vệ tinh để giám sát lũ lụt có một số nhược điểm 
+tiềm ẩn, chẳng hạn như mây dày che khuất tầm nhìn, các khu vực bị thảm thực vật che phủ (Salem và Hashemi-Beni 2022) và việc giải thích ảnh vệ tinh đòi hỏi phải phân tích phức tạp. Gần đây đã có nhiều nghiên cứu về việc loại bỏ mây khác nhau trong ảnh vệ tinh, nhưng vẫn cần được khám phá thêm (Ling và cộng sự 2021).
+Mạng lưới camera tĩnh cung cấp khả năng hiển thị quan trọng mà các cảm biến đơn lẻ không thể, đặc biệt là trên các tuyến đường thủy đô thị hoặc cơ sở hạ tầng chống lũ lụt (Pan và cộng sự,
+2018)
+Hiện tại, không có công nghệ cảm biến từ xa nào khác trên không hoặc ngoài vũ trụ có thể sánh được với khả năng phân tích vật lý các động lực học nước chi tiết trong một khu
+vực cục bộ có giới hạn của chúng.</t>
+  </si>
+  <si>
+    <t>Kiểm tra mực nước cống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFR3208 (mưa)
+</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GPS
+WiFi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng bơm để giúp kiểm soát lượng  nước dư thừa
+ Người dùng có thể biết các khu vực lũ lụt được hiển thị trên
+bản đồ GPS trong ứng dụng
+</t>
+  </si>
+  <si>
+    <t>Chỉ áp dụng được trong thành phố.
+Chưa có đánh giá thời gian thực.</t>
+  </si>
+  <si>
+    <t>Người dùng có thể biết các khu vực lũ lụt 
+được hiển thị trên bản đồ GPS trong ứng dụng
+Từ tốc độ dâng của nước để người dân phán đoán nguy cơ lũ lụt.</t>
+  </si>
+  <si>
+    <t>Đưa ra sơ đồ cách lựa chọn phương 
+thức thông báo đến người dân</t>
+  </si>
+  <si>
+    <t>. Thứ nhất, lũ lụt nghiêm trọng và sắp xảy ra đòi hỏi người dân phải hành động ngay lập tức, khiến các yếu tố cụ thể trở nên phù hợp hơn. Ví dụ, cảnh báo được phát đi qua còi báo động được phần lớn người dân nhận được ngay lập tức, trong khi các bài báo viết lại bị chậm trễ và có khả năng tiếp cận thông tin ít hơn (Fakhruddin và cộng sự, 2015). Thứ hai, nông dân ở một cộng đồng nông thôn không có kết nối internet tốc độ cao có thể tiếp cận hiệu quả hơn qua tin nhắn SMS, radio hoặc người giám sát lũ lụt, trong khi người dân ở một thành phố hiện đại có thể tiếp cận thông qua nhiều kênh khác nhau, bao gồm cả những kênh yêu cầu internet. Do đó, bối cảnh xác định lựa chọn các yếu tố mong muốn thông qua các đặc điểm của: (1) mối nguy hiểm sắp xảy ra, bao gồm thời gian dẫn và mức độ nghiêm trọng và (2) vị trí (ví dụ: Keoduangsine và Goodwin, 2012; Lam và cộng sự, 2017; Mu và cộng sự, 2018). Ngoài ra, tính khả dụng và sở thích về công nghệ truyền thông, của cả người gửi và người nhận cảnh báo, cũng quyết định việc lựa chọn các yếu tố (Keoduangsine và Goodwin, 2012; Lam và cộng sự, 2017; Mills và Curtis, 2008; Stephens và cộng sự, 2013; UNISDR, 2015). Những cân nhắc về bối cảnh này là một phần nền tảng cho chu trình phát triển cảnh báo (Hình</t>
+  </si>
+  <si>
+    <t>Đưa ra sơ đồ cách lựa chọn phương 
+thức thông báo đến người dân
+Đưa ra khảo sát về mức độ trang bị hệ thống cảnh báo sớm các thành phố ở Nhật Bản, đưa ra khảo sát về mức độ hiểu biết về lũ lụt của người dân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phát hiện sớm sạt lở đất </t>
+  </si>
+  <si>
+    <t>Đầu dò ngầm 
+( độ nghiêng + áp suất nước)</t>
+  </si>
+  <si>
+    <t>Arduino MKR WAN 1310</t>
+  </si>
+  <si>
+    <t>LoRa</t>
+  </si>
+  <si>
+    <t>Mặt trời</t>
+  </si>
+  <si>
+    <t>Có chống nước</t>
+  </si>
+  <si>
+    <t>Loa, còi, ứng dụng điện thoại</t>
+  </si>
+  <si>
+    <t>Đã áp dụng được vào thực tế
+Áp dụng cảnh báo được sớm để tránh sạt lở đất</t>
+  </si>
+  <si>
+    <t>Chưa đánh giá được độ trễ, tỷ lệ lỗi
+Chỉ sử dụng LoRa -&gt; có nguy cơ mất mát tín hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phát hiện sớm lũ lụt trên sông hồ và
+ sạt lở đất </t>
+  </si>
+  <si>
+    <t>Srf-05
+HC-SR04
+Cảm biến độ nghiêng ?</t>
+  </si>
+  <si>
+    <t>ATmega328</t>
+  </si>
+  <si>
+    <t>220V đến 5V qua 
+IC Reg 7805</t>
+  </si>
+  <si>
+    <t>Không có gì mới</t>
+  </si>
+  <si>
+    <t>Chưa thực sự rõ ràng
+Chưa đánh giá kết quả
+Cảm biến về lũ lụt còn thiếu sót</t>
+  </si>
+  <si>
+    <t>Giám sát tình trạng dòng 
+chảy trên sông</t>
+  </si>
+  <si>
+    <t>RSFP2(cảm biến mưa)
+Cảm biến siêu âm mực nước
+BMP280(áp suất khí quyển)</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Có áp dụng thêm áp suất khí quyển để dự đoán</t>
+  </si>
+  <si>
+    <t>Chưa có đánh giá kết quả, chưa thực sự áp dụng được vào thực tế</t>
+  </si>
+  <si>
+    <t>cảnh báo sớm sạt lở đất
+ cho sườn dốc bất ổn tại Himalaya</t>
+  </si>
+  <si>
+    <t>tilt sensor ( cảm biến độ nghiêng)
+Cảm biến độ ẩm đất</t>
+  </si>
+  <si>
+    <t>Kết nối không
+ dây RF (radio, 600m), truyền IoT đến máy chủ qua logger</t>
+  </si>
+  <si>
+    <t>4 pin khô kiềm 
+C-size hoạt động &gt;1 năm, chế độ tiết kiệm năng lượng (ngủ 10 phút/sau gửi dữ liệu)</t>
+  </si>
+  <si>
+    <t>Hộp và vỏ chống nước, ăn-ten
+, hộp chứa cảm biến chôn đất bảo vệ vật lý</t>
+  </si>
+  <si>
+    <t>gửi dữ liệu tới máy chủ qua Internet</t>
+  </si>
+  <si>
+    <t>My work</t>
+  </si>
+  <si>
+    <t>Cảm biến mực nước ( siêu âm)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Khoảng cách đo</t>
+  </si>
+  <si>
+    <t>Tần số siêu âm</t>
+  </si>
+  <si>
+    <t>Nhiệt độ làm việc</t>
+  </si>
+  <si>
+    <t>Nguồn cấp</t>
+  </si>
+  <si>
+    <t>Độ chính xác</t>
+  </si>
+  <si>
+    <t>Góc đo</t>
+  </si>
+  <si>
+    <t>Giao tiếp</t>
+  </si>
+  <si>
+    <t>Chống thấm nước</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>ULS53</t>
+  </si>
+  <si>
+    <t>Từ 200mm 
+đến 20m</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>– 30℃ đến 70℃</t>
+  </si>
+  <si>
+    <t>18V/12mA</t>
+  </si>
+  <si>
+    <t>10º</t>
+  </si>
+  <si>
+    <t>RS485</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>SRF04</t>
+  </si>
+  <si>
+    <t>2cm - 450cm.</t>
+  </si>
+  <si>
+    <t>40kHz</t>
+  </si>
+  <si>
+    <t>3.3V - 5VDC/ 
+10~40mA</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>15º</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>JSN-SR04T</t>
+  </si>
+  <si>
+    <t>21~600cm</t>
+  </si>
+  <si>
+    <t>3.0~5.5VDC/&lt; 8mA</t>
+  </si>
+  <si>
+    <t>+- 1cm</t>
+  </si>
+  <si>
+    <t>75º</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Tx/Rx/gnd/VDD</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>có điều khiển năng lượng</t>
+  </si>
+  <si>
+    <t>GY-VL53L0XV2</t>
+  </si>
+  <si>
+    <t>2cm-300cm</t>
+  </si>
+  <si>
+    <t>2.8~5VDC/
+20mA</t>
+  </si>
+  <si>
+    <t>0.3 cm</t>
+  </si>
+  <si>
+    <t>analog</t>
+  </si>
+  <si>
+    <t>Cảm biến mưa</t>
+  </si>
+  <si>
+    <t>Độ phân giải</t>
+  </si>
+  <si>
+    <t>Điện áp hoạt động</t>
+  </si>
+  <si>
+    <t>Diện tích</t>
+  </si>
+  <si>
+    <t>Dòng tiêu thụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Độ chính xác </t>
+  </si>
+  <si>
+    <t>T active</t>
+  </si>
+  <si>
+    <t>RG-15</t>
+  </si>
+  <si>
+    <t>0.2 mm/ 
+0.02mm</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>110 µA (khi 
+không mưa); 2–4 mA (khi đang mưa)</t>
+  </si>
+  <si>
+    <t>±10%</t>
+  </si>
+  <si>
+    <t>– 40℃ đến 85℃</t>
+  </si>
+  <si>
+    <t>RS232</t>
+  </si>
+  <si>
+    <t>Có vòng silicone O-ring
+ lắp vào rãnh ống kính để chống nước; không ghi rõ chuẩn IP</t>
+  </si>
+  <si>
+    <t>MKE-S12</t>
+  </si>
+  <si>
+    <t> 5VDC</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t> nguyên lý cảm ứng điện dung</t>
+  </si>
+  <si>
+    <t>data/gnd/vcc</t>
+  </si>
+  <si>
+    <t>YL-83</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>7.2 cm^2</t>
+  </si>
+  <si>
+    <t>150 mA</t>
+  </si>
+  <si>
+    <t>– 15℃ đến 55℃</t>
+  </si>
+  <si>
+    <t>3-5 ± 0.2V DC</t>
+  </si>
+  <si>
+    <t>&lt;3mA</t>
+  </si>
+  <si>
+    <t>± 5% RH</t>
+  </si>
+  <si>
+    <t>0-60 °C</t>
+  </si>
+  <si>
+    <t>Analog 0~5V/
+Digital (0 hoặc 5V)</t>
+  </si>
+  <si>
+    <t>Cảm biến âm thanh</t>
+  </si>
+  <si>
+    <t>Độ nhạy âm thanh</t>
+  </si>
+  <si>
+    <t>Tần số lấy mẫu</t>
+  </si>
+  <si>
+    <t>MAX4466</t>
+  </si>
+  <si>
+    <t>2.7 ~ 5.5V</t>
+  </si>
+  <si>
+    <t>20Hz - 20kHz</t>
+  </si>
+  <si>
+    <t>24 µA (điển 
+hình); tối đa 60 µA</t>
+  </si>
+  <si>
+    <t>data/ gnd/vdd</t>
+  </si>
+  <si>
+    <t>Lưu ý: Cần chuyển âm thanh 
+thành cường độ</t>
+  </si>
+  <si>
+    <t>INMP441</t>
+  </si>
+  <si>
+    <t>-26 dBFS</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>10kHz – 60kHz</t>
+  </si>
+  <si>
+    <t>1.6mA</t>
+  </si>
+  <si>
+    <t>I2S</t>
+  </si>
+  <si>
+    <t>CMM-4737DT-26186-TR</t>
+  </si>
+  <si>
+    <t>1.6 - 3.6 V</t>
+  </si>
+  <si>
+    <t>100Hz - 10kHz</t>
+  </si>
+  <si>
+    <t>750uA</t>
+  </si>
+  <si>
+    <t>– 40℃ đến 100℃</t>
+  </si>
+  <si>
+    <t>DMM-4326-T-R</t>
+  </si>
+  <si>
+    <t>-26dB</t>
+  </si>
+  <si>
+    <t>1.5 - 3.6 V</t>
+  </si>
+  <si>
+    <t>20 Hz - 18 kHz</t>
+  </si>
+  <si>
+    <t>800 µA</t>
+  </si>
+  <si>
+    <t>Cảm biến tốc độ dòng</t>
+  </si>
+  <si>
+    <t>Cảm biến gia tốc trục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Độ nhạy </t>
+  </si>
+  <si>
+    <t>ADXL345</t>
+  </si>
+  <si>
+    <t>±2g, ±4g, ±8g, ±16g</t>
+  </si>
+  <si>
+    <t>3~5VDC</t>
+  </si>
+  <si>
+    <t>0.1 Hz – 3200 Hz</t>
+  </si>
+  <si>
+    <t>130uA</t>
+  </si>
+  <si>
+    <t>– 40℃ đến 105℃</t>
+  </si>
+  <si>
+    <t>I2C / SPI</t>
+  </si>
+  <si>
+    <t>SDA/SCL/ INT</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>±2/4/8/16g</t>
+  </si>
+  <si>
+    <t>3.3V (module có thể 5V)</t>
+  </si>
+  <si>
+    <t>1 Hz – 1000 Hz (DLPF 
+ON); lên đến 8kHz (DLPF OFF)</t>
+  </si>
+  <si>
+    <t>3.9 mA</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>MMA8451Q</t>
+  </si>
+  <si>
+    <t>±2g/±4g/±8g</t>
+  </si>
+  <si>
+    <t>1.95 V to 3.6 V</t>
+  </si>
+  <si>
+    <t>1.56 Hz to 800 Hz</t>
+  </si>
+  <si>
+    <t>165uA</t>
+  </si>
+  <si>
+    <t>LIS3DH</t>
+  </si>
+  <si>
+    <t>1.71~3.6VDC</t>
+  </si>
+  <si>
+    <t>1 Hz to 5 kHz</t>
+  </si>
+  <si>
+    <t>11uA ( ~ 50Hz)</t>
+  </si>
+  <si>
+    <t>BMI160</t>
+  </si>
+  <si>
+    <t>12.5-1600Hz</t>
+  </si>
+  <si>
+    <t>925uA</t>
+  </si>
+  <si>
+    <t>Điều khiển mềm</t>
+  </si>
+  <si>
+    <t>ko cần điều khiển năng lượng</t>
+  </si>
+  <si>
+    <t>Cảm biến áp suất</t>
+  </si>
+  <si>
+    <t>Lưu ý : Trong ứng dụng đo biến thiên cần quan tâm
+độ phân giải : ( cùng 1 cảm biến chỉ cần nhận ra sư sai khác của chính nó)
+Trong ứng dụng đo độ cao thì độ chính xác tuyệt đối là yếu tố cần quan tâm.</t>
+  </si>
+  <si>
+    <t>Dải đo</t>
+  </si>
+  <si>
+    <t>DSP310</t>
+  </si>
+  <si>
+    <t>50 mm</t>
+  </si>
+  <si>
+    <t>300 –1200 hPa</t>
+  </si>
+  <si>
+    <t>1.7 – 3.6 V</t>
+  </si>
+  <si>
+    <t>345uA(max)</t>
+  </si>
+  <si>
+    <t>0.5 m</t>
+  </si>
+  <si>
+    <t>I2C/SPI</t>
+  </si>
+  <si>
+    <t>link board</t>
+  </si>
+  <si>
+    <t>DSP368</t>
+  </si>
+  <si>
+    <t>20 mm</t>
+  </si>
+  <si>
+    <t>link sensor</t>
+  </si>
+  <si>
+    <t>PSD0401120</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>30kPa to 120kPa</t>
+  </si>
+  <si>
+    <t>3.3 V</t>
+  </si>
+  <si>
+    <t>300uA(max)</t>
+  </si>
+  <si>
+    <t>8.5 m</t>
+  </si>
+  <si>
+    <t>– 40℃ đến 125℃</t>
+  </si>
+  <si>
+    <t>&lt;100m</t>
+  </si>
+  <si>
+    <t>MS5611-01BA03</t>
+  </si>
+  <si>
+    <t>100 mm</t>
+  </si>
+  <si>
+    <t>450–1100 mbar</t>
+  </si>
+  <si>
+    <t>1.8 – 3.6 V</t>
+  </si>
+  <si>
+    <t>0.9 – 12.5 µA</t>
+  </si>
+  <si>
+    <t>1.25 m</t>
+  </si>
+  <si>
+    <t>Hãng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện áp cung cấp </t>
+  </si>
+  <si>
+    <t>Dải nhiệt độ 
+hoạt động</t>
+  </si>
+  <si>
+    <t>Dòng điện cung cấp 
+trong Vbta mode</t>
+  </si>
+  <si>
+    <t>Dòng điện chế 
+độ Shut down</t>
+  </si>
+  <si>
+    <t>Dòng điện chế 
+độ standby</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Tần số</t>
+  </si>
+  <si>
+    <t>Công nghệ hỗ trợ</t>
+  </si>
+  <si>
+    <t>Số lượng I/Os</t>
+  </si>
+  <si>
+    <t>Memo ries size</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM
+-1 N16R8</t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
+  </si>
+  <si>
+    <t>3.0V ~ 3.6V</t>
+  </si>
+  <si>
+    <t>-40°C ~ 85°C</t>
+  </si>
+  <si>
+    <t>31–50 mA</t>
+  </si>
+  <si>
+    <t>0.1uA</t>
+  </si>
+  <si>
+    <t>7-8uA</t>
+  </si>
+  <si>
+    <t>Xtensa® Dual-core 
+32-bit LX7 Microprocessor</t>
+  </si>
+  <si>
+    <t>240MHz</t>
+  </si>
+  <si>
+    <t>Wi-Fi 2.4GHz 802.11 b/g/n, BLE 5.0</t>
+  </si>
+  <si>
+    <t>16 MB,</t>
+  </si>
+  <si>
+    <t>STM32F103
+C8T6</t>
+  </si>
+  <si>
+    <t>STMicroelect ronics</t>
+  </si>
+  <si>
+    <t>1.8V ~ 3.6V</t>
+  </si>
+  <si>
+    <t>1.7uA</t>
+  </si>
+  <si>
+    <t>5.5mA</t>
+  </si>
+  <si>
+    <t>3.4uA</t>
+  </si>
+  <si>
+    <t>Arm® 32-bit Cortex®-M3</t>
+  </si>
+  <si>
+    <t>72MHz</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>64kB</t>
+  </si>
+  <si>
+    <t>STM32L431 CCT6</t>
+  </si>
+  <si>
+    <t>1.71V ~ 3.6V</t>
+  </si>
+  <si>
+    <t>200nA</t>
+  </si>
+  <si>
+    <t>8nA</t>
+  </si>
+  <si>
+    <t>28nA</t>
+  </si>
+  <si>
+    <t>Arm® 32-bit Cortex®-M4</t>
+  </si>
+  <si>
+    <t>80MHz</t>
+  </si>
+  <si>
+    <t>256kB</t>
+  </si>
+  <si>
+    <t>STM32F407 VET6</t>
+  </si>
+  <si>
+    <t>1.68uA</t>
+  </si>
+  <si>
+    <t>84mA</t>
+  </si>
+  <si>
+    <t>4uA</t>
+  </si>
+  <si>
+    <t>168MHz</t>
+  </si>
+  <si>
+    <t>512kB</t>
+  </si>
+  <si>
+    <t>ESP32-C3-MINI-1-H4</t>
+  </si>
+  <si>
+    <t>350mA</t>
+  </si>
+  <si>
+    <t>0.2uA</t>
+  </si>
+  <si>
+    <t>5uA</t>
+  </si>
+  <si>
+    <t>32-bit RISC-V (1 core)</t>
+  </si>
+  <si>
+    <t>160 MHz</t>
+  </si>
+  <si>
+    <t>Wi-Fi 2.4
+GHz 802.11b/g/n, Bluetooth 5 LE</t>
+  </si>
+  <si>
+    <t>4MB</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX1276 </t>
+  </si>
+  <si>
+    <t>SX1231</t>
+  </si>
+  <si>
+    <t>SX1232</t>
+  </si>
+  <si>
+    <t>SX1273</t>
+  </si>
+  <si>
+    <t>SX1272</t>
+  </si>
+  <si>
+    <t>SX1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tần số </t>
+  </si>
+  <si>
+    <t xml:space="preserve">137MHz ~ 1.02GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">290MHz ~ 340MHz, 424MHz ~ 510MHz, 862MHz ~ 1.02GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">862Mhz ~ 1.02GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">860MHz ~ 1.02GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">863MHz ~ 870MHz, 902MHz ~ 928MHz, 950MHz ~ 960MHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Rate (kbps) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công suất phát (dBm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Độ nhạy thu (dBm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện áp (V) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 ~ 3.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ~ 3.6V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 ~ 3.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dòng tiêu thụ khi nhận (mA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8 ~ 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5 ~ 11.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dòng tiêu thụ khi truyền (mA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 ~ 120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 ~ 95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 ~ 125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 ~ 25 </t>
+  </si>
+  <si>
+    <t>Giao thức hỗ trợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dòng tiêu thụ </t>
+  </si>
+  <si>
+    <t>Dòng tĩnh</t>
+  </si>
+  <si>
+    <t>SIM7080G</t>
+  </si>
+  <si>
+    <t>SIM7000E</t>
+  </si>
+  <si>
+    <t>SIM7070G</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>IQ/Sc</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>Efficient</t>
+  </si>
+  <si>
+    <t>500mA</t>
+  </si>
+  <si>
+    <t>1uA</t>
+  </si>
+  <si>
+    <t>TP5100</t>
+  </si>
+  <si>
+    <t>2000mA</t>
+  </si>
   <si>
     <t xml:space="preserve">Module sim </t>
   </si>
@@ -47,10 +1410,16 @@
     <t>SIM7080G (chính)</t>
   </si>
   <si>
+    <t>0.5A</t>
+  </si>
+  <si>
+    <t>Link sim</t>
+  </si>
+  <si>
     <t>https://linhkien.cxtvn.com/6535-sim7080g-cat-mnb-iot.html</t>
   </si>
   <si>
-    <t>Link sim</t>
+    <t>450K(CXT)</t>
   </si>
   <si>
     <t>Link module</t>
@@ -59,68 +1428,340 @@
     <t>https://www.proe.vn/sim7080g-cat-m-nb-iot-hat-en-nb-iot-cat-m-emtc-gnss-hat-for-raspberry-pi-globally-applicable</t>
   </si>
   <si>
-    <t>450K(CXT)</t>
-  </si>
-  <si>
     <t>950K(PRoE)</t>
   </si>
   <si>
-    <t>MCU</t>
+    <t>tạo bảng</t>
+  </si>
+  <si>
+    <t>có</t>
   </si>
   <si>
     <t>ESP32S3</t>
   </si>
   <si>
+    <t>0.1A</t>
+  </si>
+  <si>
     <t>màn hình TFT</t>
   </si>
   <si>
+    <t>TFT ST7789</t>
+  </si>
+  <si>
     <t>Loa</t>
   </si>
   <si>
+    <t>module I2S</t>
+  </si>
+  <si>
     <t>Led</t>
   </si>
   <si>
-    <t>module I2S</t>
-  </si>
-  <si>
-    <t>TFT ST7789</t>
+    <t>6led</t>
+  </si>
+  <si>
+    <t>nút bấm</t>
+  </si>
+  <si>
+    <t>nguồn</t>
+  </si>
+  <si>
+    <t>USB 1.0</t>
+  </si>
+  <si>
+    <t>RS232/RS485</t>
+  </si>
+  <si>
+    <t>khe thẻ nhớ</t>
   </si>
   <si>
     <t>IC BUCK</t>
   </si>
   <si>
-    <t>6led</t>
-  </si>
-  <si>
-    <t>nút bấm</t>
-  </si>
-  <si>
-    <t>nguồn</t>
+    <t>XL4015</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>So sánh các IC quản lý sạc</t>
+  </si>
+  <si>
+    <t>Output leak
+Current</t>
+  </si>
+  <si>
+    <t>TP4056</t>
+  </si>
+  <si>
+    <t>MCP73831</t>
+  </si>
+  <si>
+    <t>Current charger
+max</t>
+  </si>
+  <si>
+    <t>3.75 - 6 V</t>
+  </si>
+  <si>
+    <t>&lt;2uA</t>
+  </si>
+  <si>
+    <t>6 -  28 V</t>
+  </si>
+  <si>
+    <t>MAX1737EEI</t>
+  </si>
+  <si>
+    <t>10uA</t>
+  </si>
+  <si>
+    <t>5 - 18 V</t>
+  </si>
+  <si>
+    <t>BQ24070RHLR</t>
+  </si>
+  <si>
+    <t>&lt; 18 V</t>
+  </si>
+  <si>
+    <t>4 - 8 V</t>
+  </si>
+  <si>
+    <t>2uA</t>
+  </si>
+  <si>
+    <t>1500mA</t>
+  </si>
+  <si>
+    <t>80 ~ 89 %</t>
+  </si>
+  <si>
+    <t>Phụ thuộc 
+mosfet ngoài</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Sạc tuyến tính , hiệu 
+suất phụ thuộc vào hiệu điện thế giữa đầu vào và pin</t>
+  </si>
+  <si>
+    <t>78–80%</t>
+  </si>
+  <si>
+    <t>Sạc xung PWM</t>
+  </si>
+  <si>
+    <t>Yêu cầu của IC BUCK: 
+- Iout &gt;=2A ( 0.5 A module sim, 0.5 A MCU, 0.1 A ở màn hình TFT, dự tính 1A ở cảm biến ~ 1.3A )
+- Hiệu suất càng lớn càng tốt: Dòng tĩnh thấp, efficient &gt;80%
+- Dải điện áp đầu vào bao phủ  3.7V ( sau khi đi từ Pin 3.7V đưa về 3.3V)
+- Dải điện áp đầu ra 3V-5V</t>
+  </si>
+  <si>
+    <t>4.5V to 17V</t>
+  </si>
+  <si>
+    <t>TPS563201DDCR</t>
+  </si>
+  <si>
+    <t>0.76V to 7V</t>
+  </si>
+  <si>
+    <t>Tốc độ dữ liệu</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>8uA</t>
+  </si>
+  <si>
+    <t>120uA</t>
+  </si>
+  <si>
+    <t>SIMCom</t>
+  </si>
+  <si>
+    <t>LTE‑Cat M1 / NB‑IoT / GNSS</t>
+  </si>
+  <si>
+    <t>LTE‑Cat M1 / NB‑IoT / EGPRS / GNSS</t>
+  </si>
+  <si>
+    <t>BG77</t>
+  </si>
+  <si>
+    <t>SARA‑R412M</t>
+  </si>
+  <si>
+    <t>Quectel</t>
+  </si>
+  <si>
+    <t>u‑blox</t>
+  </si>
+  <si>
+    <t>LTE‑Cat M1 / NB‑IoT / GNSS / VoLTE</t>
+  </si>
+  <si>
+    <t>LTE‑Cat M1 / NB‑IoT / EGPRS / USB</t>
+  </si>
+  <si>
+    <t>Tx: 52–162 mA; Rx: 0.59–1.4 mA</t>
+  </si>
+  <si>
+    <t>Idle: ~0.8 mA; PSM: ~3 µA</t>
+  </si>
+  <si>
+    <t>Sleep: 0.6–1.7 mA; PSM: ~4µA;</t>
+  </si>
+  <si>
+    <t>Cat-M/NB: đến ~375 kbps</t>
+  </si>
+  <si>
+    <t>Cat-M: 589 kbps DL / 
+1 119 kbps UL; NB‑IoT: 136 kbps DL / 150 kbps UL</t>
+  </si>
+  <si>
+    <t>LTE-M/NB: ~375 kbps</t>
+  </si>
+  <si>
+    <t>Cat-M: 589 kbps DL / 1 119 kbps UL; 
+NB‑IoT: 136 kbps DL / 150 kbps UL</t>
+  </si>
+  <si>
+    <t>Cat-M: 589/1 119 kbps; 
+NB‑IoT: 136/150 kbps</t>
+  </si>
+  <si>
+    <t>Transmission: 500 mA (max)</t>
+  </si>
+  <si>
+    <t>Sleep: 1.2 mA; PSM: 3 µA</t>
+  </si>
+  <si>
+    <t>Sleep: 0.45-2.1 mA; PSM: ~3.5 µA</t>
+  </si>
+  <si>
+    <t>Transmission: 1800 mA (max)</t>
+  </si>
+  <si>
+    <t>BG95-M5</t>
+  </si>
+  <si>
+    <t>2.6 – 4.8 V</t>
+  </si>
+  <si>
+    <t>2.7 – 4.8 V</t>
+  </si>
+  <si>
+    <t>~3.0 – 4.2 V (typical)</t>
+  </si>
+  <si>
+    <t>3.3 – 4.3 V (typ 3.8 V)</t>
+  </si>
+  <si>
+    <t>2.4 – 4.8 V (typ 3.3 V)</t>
+  </si>
+  <si>
+    <t>3.2 – 4.2 V</t>
+  </si>
+  <si>
+    <t>Cat-M: 589/1119kbps; 
+NB‑IoT: 127/158.5kbps</t>
+  </si>
+  <si>
+    <t>MT3410</t>
+  </si>
+  <si>
+    <t>1.5A</t>
+  </si>
+  <si>
+    <t>2.3V to 6V</t>
+  </si>
+  <si>
+    <t>35uA</t>
+  </si>
+  <si>
+    <t>0.6 to 5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV2862XLVDDCR </t>
+  </si>
+  <si>
+    <t>4 V to 60 V</t>
+  </si>
+  <si>
+    <t>0.6A</t>
+  </si>
+  <si>
+    <t>0.765 to 60</t>
+  </si>
+  <si>
+    <t>Sleep: ??? mA; PSM: ~8 µA</t>
+  </si>
+  <si>
+    <t>Tx/Rx: ~500 mA</t>
+  </si>
+  <si>
+    <t>28uA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLV62569DBVR </t>
+  </si>
+  <si>
+    <t>2.5-V to 5.5-V</t>
+  </si>
+  <si>
+    <t>0.6 V to VIN</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>0.5A</t>
-  </si>
-  <si>
-    <t>tạo bảng</t>
-  </si>
-  <si>
-    <t>0.1A</t>
-  </si>
-  <si>
-    <t>XL4015</t>
-  </si>
-  <si>
-    <t>5A</t>
+    <t>4.5 V to 40 V</t>
+  </si>
+  <si>
+    <t>5mA</t>
+  </si>
+  <si>
+    <t>LM2596</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,16V to VIN</t>
+  </si>
+  <si>
+    <t>Kết luận:
+- Vỡi cảnh báo lũ lụt thường sử dụng cảm biến mực nước bằng siêu âm, cảm biến mưa.
+- Với cảnh báo sạt lở thường sử dụng cảm biến độ nghiêng ( đầu dò, gia tốc trục), cảm biến áp suất ( lòng đất, nước, khí quyển), có kết hợp 1 số bài báo là cảm biến độ ẩm, cảm biến mưa.
+- Năng lượng thường được cấp bằng năng lượng mặt trời tích trũ vào pin
+Đánh giá nhược điểm: 
+- Các hệ thống hiện tại thường chỉ đề cập đến lũ lụt hoặc sạt lở, chưa có sự kết hợp
+- Chưa có sự đánh giá sự chính xác của hệ thống
+- Các hệ thống lũ lụt thường chỉ áp dụng được ở các thành phố
+- Chưa có các biện pháp bảo vệ sản phẩm
+- Chưa có biện pháp phân biệt nước dâng và lũ lụt. 
+- Chỉ có 1 giao thức truyền tin ( thường là LoRa) có nguy cơ mất tín hiệu cao.
+Đề nghị:
+- Với lũ lụt dùng cảm biến mưa, mực nước, âm thanh, tốc độ dòng chảy ( tăng số lượng chỉ số để đánh giá chính xác hơn. Vd âm thanh , tốc độ dòng chảy để phân biệt nước dâng bình thường so với lũ lụt).
+- Với sạt lở đất dùng cảm biến độ nghiêng và cảm biến áp suất, độ ẩm đất.
+- Sử dụng kết hợp thêm các công nghệ truyền tin khắc ngoài LoRa ( WiFi, 4G, NbIoT).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,20 +1777,394 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tieude"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -158,9 +2173,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -177,6 +2344,106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Le Van Cong 20210128" id="{A9521EC1-D1B1-4D1D-A8A9-D98DC71570D1}" userId="S::Cong.LV210128@sis.hust.edu.vn::ede894d0-0cb2-4a2a-b6e1-2442bd8668b9" providerId="AD"/>
+</personList>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,122 +2761,3937 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P3" dT="2025-07-12T12:33:46.93" personId="{A9521EC1-D1B1-4D1D-A8A9-D98DC71570D1}" id="{3DF892AE-1245-49B8-9ADC-5EFE6C8E1C84}">
+    <text xml:space="preserve">Grabcut là một thuật toán lặp lại và ít can thiệp của người dùng cho các tác vụ phân đoạn ảnh không giám sát, chia ảnh thành tiền cảnh và hậu cảnh (Rother và cộng sự, 2004). Sử dụng GrabCut để phân đoạn phần đo từ phần còn lại của ảnh. Thuật toán thường được triển khai bằng cách sử dụng ảnh đầu vào với hộp giới hạn xác định vị trí của đối tượng trong ảnh muốn phân đoạn hoặc mặt nạ xấp xỉ phân đoạn. Đầu tiên, sử dụng ảnh nhị phân ngưỡng để tìm đường viền tối đa và sau đó tạo mặt nạ. Các phương pháp phân đoạn ảnh truyền thống sử dụng thông tin kết cấu (màu sắc) hoặc thông tin cạnh (độ tương phản). GrabCut kết hợp thành công cả hai dạng thông tin và mang lại kết quả nâng cao 
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E5" dT="2025-07-16T03:22:28.71" personId="{A9521EC1-D1B1-4D1D-A8A9-D98DC71570D1}" id="{6E9CA607-92DC-4605-8FCB-79A1515A256E}">
+    <text xml:space="preserve">Charging current is sensed via the voltage drop across the current-sense resistor (R&lt;sub&gt;18&lt;/sub&gt; in Figure 1), connected between BATT and CS. Full-scale charging current corresponds to a 200 mV drop across this resistor 
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C625369D-3E1D-472B-8AE7-8951AA71DF05}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D2511-8836-4758-BD89-E1E7E20F7CA6}">
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="Z4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="18" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="21.5546875" customWidth="1"/>
+    <col min="28" max="28" width="24.5546875" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
+    <col min="30" max="30" width="24.44140625" customWidth="1"/>
+    <col min="31" max="31" width="35.5546875" customWidth="1"/>
+    <col min="32" max="32" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="43.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="244.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="259.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="86.4">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="288">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="100.8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="57.6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="57.6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="72">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="103.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="14.4" customHeight="1">
+      <c r="B14" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:O31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S2667345223000263" xr:uid="{300D060B-F955-4FF7-A160-535F19607A78}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://www.sciencedirect.com/science/article/pii/S0022169421007587" xr:uid="{2F4F83B9-35E3-49FB-8B7D-55FC92C08B30}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S2212420924005648" xr:uid="{E516DDAA-CDF8-4E7E-A652-D42F28E4B065}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://nhess.copernicus.org/articles/24/1843/2024/nhess-24-1843-2024.pdf" xr:uid="{D3D4AC1C-62E8-4E10-94BB-69D8FA881C74}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://iopscience.iop.org/article/10.1088/1742-6596/1361/1/012062/pdf" xr:uid="{96C916A3-0FF6-4255-AD82-92E4ED2302D4}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://iopscience.iop.org/article/10.1088/1742-6596/1764/1/012190/pdf" xr:uid="{3DC7EB4F-1F72-428B-BB33-EF7779EC69D3}"/>
+    <hyperlink ref="A3" r:id="rId7" location="d1e141" display="https://www.tandfonline.com/doi/full/10.1080/19475705.2024.2364777 - d1e141" xr:uid="{D2F5F170-4679-468F-9B4A-33589AFF5BEF}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://iopscience.iop.org/article/10.1088/1755-1315/479/1/012016" xr:uid="{F1646C63-1E4E-4922-8637-B69024C83B38}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F21811-9AF1-4CAC-97E0-20738EEDC101}">
+  <dimension ref="A1:Y138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="26.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="9"/>
+    <col min="15" max="15" width="15.33203125" style="9" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="16.5546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="31.8">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="15">
+        <v>18.5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" ht="31.8">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="16">
+        <v>20</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="33">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="38">
+        <v>195</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="29.4">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="15">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="72">
+      <c r="B11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="45">
+        <v>2574</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="35.4">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="L15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="54">
+      <c r="B19" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27">
+        <v>30</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="O19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="9">
+        <v>55</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="9">
+        <v>47</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="9">
+        <v>49</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="M27" s="17"/>
+      <c r="O27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="B34" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54">
+        <v>39</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="63"/>
+      <c r="O34" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="43.8">
+      <c r="B35" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56">
+        <v>67</v>
+      </c>
+      <c r="L35" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="61"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="B36" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56">
+        <v>90</v>
+      </c>
+      <c r="L36" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="B37" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56">
+        <v>40</v>
+      </c>
+      <c r="L37" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="61"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="B38" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59">
+        <v>26</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" s="61"/>
+      <c r="O38" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="B40" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="17"/>
+      <c r="O40" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="C41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="9">
+        <v>166</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M42" s="17"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="B43" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="27">
+        <v>66</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M43" s="31"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="B44" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" s="9">
+        <v>177</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="18">
+        <v>125</v>
+      </c>
+      <c r="L45" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="M46" s="17"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="M47" s="17"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="13:13">
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="13:13">
+      <c r="M59" s="17"/>
+    </row>
+    <row r="60" spans="13:13">
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="13:13">
+      <c r="M61" s="17"/>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="13:13">
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="13:13">
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="13:13">
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="13:13">
+      <c r="M69" s="17"/>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="13:13">
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="13:13">
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="13:13">
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="13:13">
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="13:13">
+      <c r="M75" s="17"/>
+    </row>
+    <row r="76" spans="13:13">
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="13:13">
+      <c r="M77" s="17"/>
+    </row>
+    <row r="78" spans="13:13">
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="13:13">
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="13:13">
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="13:13">
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" s="17"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="13:13">
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="13:13">
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="13:13">
+      <c r="M95" s="17"/>
+    </row>
+    <row r="96" spans="13:13">
+      <c r="M96" s="17"/>
+    </row>
+    <row r="97" spans="13:13">
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="13:13">
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="13:13">
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="13:13">
+      <c r="M104" s="17"/>
+    </row>
+    <row r="105" spans="13:13">
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="13:13">
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="13:13">
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="13:13">
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="13:13">
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="13:13">
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="13:13">
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="13:13">
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="13:13">
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="13:13">
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="13:13">
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="13:13">
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="13:13">
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="13:13">
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="13:13">
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="13:13">
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="13:13">
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="13:13">
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="13:13">
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="13:13">
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="13:13">
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="13:13">
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="13:13">
+      <c r="M128" s="17"/>
+    </row>
+    <row r="135" spans="13:13">
+      <c r="M135" s="17"/>
+    </row>
+    <row r="136" spans="13:13">
+      <c r="M136" s="17"/>
+    </row>
+    <row r="137" spans="13:13">
+      <c r="M137" s="17"/>
+    </row>
+    <row r="138" spans="13:13">
+      <c r="M138" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="O40:T45"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="P19:S19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{A79A44E8-62A1-4515-B3F4-9C6B9A792AD5}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{59A2E045-C486-43DC-A151-1DECD58C94E4}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{952FFEC8-B683-4647-AC74-49F92326CBF6}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{426F68E0-4F4A-49E0-A968-E48886BB3DBC}"/>
+    <hyperlink ref="L42" r:id="rId5" display="link" xr:uid="{7A7BCA1F-C986-4F7F-9D85-CF76BCB7E0ED}"/>
+    <hyperlink ref="L43" r:id="rId6" display="link" xr:uid="{31EFE9C7-E824-4E91-944B-80ACA8BA6F02}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{28230A38-07E4-4227-95F8-70FDAAD7101F}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{D7676070-A293-4EEE-A68C-367006F1F588}"/>
+    <hyperlink ref="M12" r:id="rId9" xr:uid="{D2EBD3F9-E5E0-4F49-9A34-41BDB3A26262}"/>
+    <hyperlink ref="N13" r:id="rId10" xr:uid="{1808363D-EAFC-4291-A783-5E773B3FEEAE}"/>
+    <hyperlink ref="L14" r:id="rId11" xr:uid="{729F9248-8356-4188-B5EA-97CB96C1D9AC}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{FD5DD620-B38A-4430-8829-96D01743B235}"/>
+    <hyperlink ref="L3" r:id="rId13" xr:uid="{D175A9FD-6DBB-4B18-BEB4-08E25D7328ED}"/>
+    <hyperlink ref="L19" r:id="rId14" xr:uid="{A73B44A8-3927-4E0E-BB49-DAE412866EB6}"/>
+    <hyperlink ref="L22" r:id="rId15" xr:uid="{BD15FF4C-217A-4F03-B423-03851E35A408}"/>
+    <hyperlink ref="L21" r:id="rId16" xr:uid="{511107B1-0974-40F0-B832-90F05A24A809}"/>
+    <hyperlink ref="L20" r:id="rId17" xr:uid="{55C122BA-088F-4685-88F3-31AEA404565D}"/>
+    <hyperlink ref="L34" r:id="rId18" xr:uid="{E4362CC7-72F4-48F8-AEEA-AEE65F6BC267}"/>
+    <hyperlink ref="L35" r:id="rId19" xr:uid="{D530FCB7-F5D8-4B29-AD4C-94716F351622}"/>
+    <hyperlink ref="L36" r:id="rId20" xr:uid="{7F804433-D659-4EA1-85AC-3A188224525A}"/>
+    <hyperlink ref="L37" r:id="rId21" xr:uid="{F7A38795-12F4-4A85-AE9B-E1EDA3E3530E}"/>
+    <hyperlink ref="L45" r:id="rId22" xr:uid="{C61F9887-316D-4C7D-8B53-56EF11E5A4B1}"/>
+    <hyperlink ref="L38" r:id="rId23" xr:uid="{5FCB3813-4117-452B-8089-ED2030A994C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F0841-2D2E-4FE8-8206-323A824C5E8B}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="72">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="28">
+        <v>45</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="N2" s="72">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N3" s="68">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N4" s="68">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" s="68">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="86.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N6" s="69">
+        <v>3.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D6FA40-BD80-41A0-8DBB-8E6D4DD22E8B}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8">
+      <c r="A1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.8">
+      <c r="A2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="53.4" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="50.4">
+      <c r="A4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="71">
+        <v>300</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5">
+        <v>300</v>
+      </c>
+      <c r="E4" s="5">
+        <v>300</v>
+      </c>
+      <c r="F4" s="5">
+        <v>300</v>
+      </c>
+      <c r="G4" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A5" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="86">
+        <v>20</v>
+      </c>
+      <c r="C5" s="87">
+        <v>17</v>
+      </c>
+      <c r="D5" s="87">
+        <v>20</v>
+      </c>
+      <c r="E5" s="87">
+        <v>20</v>
+      </c>
+      <c r="F5" s="87">
+        <v>20</v>
+      </c>
+      <c r="G5" s="87">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A7" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="86">
+        <v>-148</v>
+      </c>
+      <c r="C7" s="87">
+        <v>-120</v>
+      </c>
+      <c r="D7" s="87">
+        <v>-123</v>
+      </c>
+      <c r="E7" s="87">
+        <v>-130</v>
+      </c>
+      <c r="F7" s="87">
+        <v>-137</v>
+      </c>
+      <c r="G7" s="87">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="85" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="52.2" customHeight="1">
+      <c r="A11" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="85">
+        <v>16</v>
+      </c>
+      <c r="D11" s="85">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+    </row>
+    <row r="13" spans="1:7" ht="69" customHeight="1">
+      <c r="A13" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286384C6-9D10-4EE8-A6E6-CD47866763BB}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" s="28" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45.6" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57.6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{D36638EE-9066-45DC-9E36-044774A60FA1}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{A5E29BB6-B682-41E0-A423-6F126D7D701C}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{42236F4E-0EA2-42F9-9283-0EDF1336434D}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{87A493CC-1918-4BCE-BAFC-69962AA9E696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A6095-F1C1-4075-B039-17B2E533C90B}">
+  <dimension ref="A2:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="115.2" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="75">
+        <v>0.96</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="88"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="73">
+        <v>0.73</v>
+      </c>
+      <c r="L7" s="88"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="L8" s="88"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" s="88"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" s="88"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="L12" s="88"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="L13" s="88"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="L14" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:L14"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{33E7280A-0837-4ED3-B11F-653B20F67DC9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E99E3264-EBC2-4E1A-862A-D4E7F8DD211B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{63ED275F-6A50-4342-A5BB-F525254C6FCE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{95FB5C2F-C64B-4A15-B2B7-CD49B0760CA7}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{9342F234-E2B4-4332-A65B-339A003FD243}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42AA70A-366A-4141-B3D7-9DF91B02BF51}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="42.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{0F209568-AEF6-4214-9332-BBB0001C4E25}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{8557A9A7-E1A6-4224-B942-750776B30F36}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{DC201957-FD71-4E8D-83D3-F6C414A24991}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{FC064BF3-9B5C-49F2-AFCA-19A1D2202128}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{FB0EBA03-7CE2-411B-B54F-B0C3388E943A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C625369D-3E1D-472B-8AE7-8951AA71DF05}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="104" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="F4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="H10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
+        <v>385</v>
+      </c>
+      <c r="H12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -619,8 +6701,316 @@
     <hyperlink ref="B5" r:id="rId3" xr:uid="{5A456673-8395-4C00-BE6C-613228F2C1AF}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{14CFF840-A1C7-486E-80E2-EEF1B5F8E9CB}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{5D719A92-B471-473F-AEB2-A01693B789E6}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{BCD23DB0-1694-45D8-A904-66894301E034}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{BCD23DB0-1694-45D8-A904-66894301E034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d75950b8-cc20-4b12-94f0-0f10ff6a63e2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D6AD9C3C0A18A4CB4E623A847940151" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7687077d5c1e3ec8c918b3bb72575c47">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d75950b8-cc20-4b12-94f0-0f10ff6a63e2" xmlns:ns4="9324405d-ea1e-43bc-a33f-0db1eb5beaf5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecc6fd7bbf3ea8a08ab3ac8d48e44ac2" ns3:_="" ns4:_="">
+    <xsd:import namespace="d75950b8-cc20-4b12-94f0-0f10ff6a63e2"/>
+    <xsd:import namespace="9324405d-ea1e-43bc-a33f-0db1eb5beaf5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d75950b8-cc20-4b12-94f0-0f10ff6a63e2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="21" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9324405d-ea1e-43bc-a33f-0db1eb5beaf5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A92368-DBA8-42BC-BFEC-1D167F139D27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EC4FA2F-B1C0-4138-875B-EF0372C477E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9324405d-ea1e-43bc-a33f-0db1eb5beaf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d75950b8-cc20-4b12-94f0-0f10ff6a63e2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C88897-DC86-4250-ABE8-D4143363A2EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d75950b8-cc20-4b12-94f0-0f10ff6a63e2"/>
+    <ds:schemaRef ds:uri="9324405d-ea1e-43bc-a33f-0db1eb5beaf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>